--- a/Outputs/Monte Carlo summary stats.xlsx
+++ b/Outputs/Monte Carlo summary stats.xlsx
@@ -109,16 +109,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.86863010643046E10</v>
+        <v>1.88973855640575E10</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.04479902008945E10</v>
+        <v>-2.84809501802576E10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.18445199390406E9</v>
+        <v>2.80721903024372E9</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.38492644861783E9</v>
+        <v>-1.16595041599334E9</v>
       </c>
     </row>
     <row r="3">
@@ -126,16 +126,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0876564866672826E11</v>
+        <v>1.0037495944897363E11</v>
       </c>
       <c r="C3" t="n">
-        <v>2.210522790373495E10</v>
+        <v>2.6744879125375072E10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.174521545004355E10</v>
+        <v>9.701171395164284E9</v>
       </c>
       <c r="E3" t="n">
-        <v>2.607012447992667E9</v>
+        <v>2.97590615921861E9</v>
       </c>
     </row>
     <row r="4">
@@ -143,16 +143,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.94705801101591E11</v>
+        <v>1.724825807658935E11</v>
       </c>
       <c r="C4" t="n">
-        <v>6.249561930834675E10</v>
+        <v>5.602693270054675E10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.763383379217105E10</v>
+        <v>1.702107491695565E10</v>
       </c>
       <c r="E4" t="n">
-        <v>6.01354416208632E9</v>
+        <v>6.01008896188342E9</v>
       </c>
     </row>
     <row r="5">
@@ -160,16 +160,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.853677045618633E11</v>
+        <v>3.189191271785612E11</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1756530103343E11</v>
+        <v>1.1061030225855699E11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5990273840466904E10</v>
+        <v>2.5490533857065723E10</v>
       </c>
       <c r="E5" t="n">
-        <v>9.995975279232485E9</v>
+        <v>1.0171714908449276E10</v>
       </c>
     </row>
     <row r="6">
@@ -177,16 +177,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4.96385941315168E11</v>
+        <v>1.03127883597876E12</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04830532882436E11</v>
+        <v>6.44600752498008E11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.27741273184058E10</v>
+        <v>8.18925588994798E10</v>
       </c>
       <c r="E6" t="n">
-        <v>2.40876323602077E10</v>
+        <v>4.80478620364007E10</v>
       </c>
     </row>
   </sheetData>
